--- a/apps/home/invest/outros_ativos.xlsx
+++ b/apps/home/invest/outros_ativos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t xml:space="preserve">Entrada/Saída</t>
   </si>
@@ -46,24 +46,33 @@
     <t xml:space="preserve">Credito</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-11-24 00:51:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-05-18 00:51:15</t>
   </si>
   <si>
-    <t xml:space="preserve">Compra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTC</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-03-04 01:43:25</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-18 00:42:11</t>
   </si>
   <si>
-    <t xml:space="preserve">DOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-04-26 16:48:12</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t xml:space="preserve">2023-05-18 00:43:20</t>
   </si>
   <si>
-    <t xml:space="preserve">LINK</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-04-26 16:49:28</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-05-18 00:47:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-01 12:05:58</t>
@@ -140,7 +143,7 @@
     <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00######_-;&quot;-R$&quot;* #,##0.00######_-;_ \-;_-@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -186,22 +189,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="-apple-system"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -259,8 +249,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -272,7 +270,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -287,8 +285,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -296,15 +294,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,512 +314,655 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="126.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>149.52</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>10243.92</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>101.41</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>186101</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>199.12</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>0.00146</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F6" s="7" t="n">
         <v>135898</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>198.41108</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>117023</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>18.72368</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>44986.5011689815</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0.01211</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>123807</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1499.30277</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>59.8086</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>32.823</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>250.7552</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>117023</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>18.72368</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>44986.5011689815</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.01211</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>123807</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>1499.30277</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E12" s="8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>89.8604</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>46.925</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>500.7684</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>26.82</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>59.8086</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E15" s="8" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>9037.91</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>51.516087</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0.0869</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>8630.06</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>749.952214</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>32.823</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>34.07</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>250.7552</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>89.8604</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>37.54</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>46.925</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>500.7684</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>9037.91</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>51.516087</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0.0869</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>8630.06</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>749.952214</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="F17" s="9" t="n">
+        <v>92.02</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>1119.38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>92.26</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1119.38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7" t="n">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="7" t="n">
-        <v>92.19</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="E18" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>92.03</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>2304.75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9" t="n">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11" t="n">
         <v>2399.94931307</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F19" s="9" t="n">
         <v>1.2500264</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G19" s="9" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="n">
         <v>2468.6</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F20" s="9" t="n">
         <v>1.3971</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G20" s="9" t="n">
         <v>3339</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <v>2752.42</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F21" s="9" t="n">
         <v>1.3669</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G21" s="9" t="n">
         <v>3488</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>1530.75</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="G18" s="7" t="n">
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1749.717</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>2988.37</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="n">
-        <v>11637.64</v>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>11637.64</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="F23" s="11" t="n">
+        <v>13028</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>13028</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>2840.33</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>2.6757402</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <f aca="false">E20*F20</f>
-        <v>7599.985162</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>2136.6302</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.9365728</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <f aca="false">E24*F24</f>
+        <v>6274.37012897856</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1806,6 +1939,10 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
